--- a/modulo_odoo/Informes/Informexls/Sem_Prom_Consentrados.xlsx
+++ b/modulo_odoo/Informes/Informexls/Sem_Prom_Consentrados.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>Informe Semana Promocional Consentrados a Corte: 19 - enero - 2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>Informe Semana Promocional Consentrados a Corte: 08 - junio - 2022</t>
   </si>
   <si>
     <t>No.</t>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>SO6117</t>
+  </si>
+  <si>
+    <t>FEAL0000000102</t>
+  </si>
+  <si>
+    <t>910000081</t>
+  </si>
+  <si>
+    <t>CHUNKY GATOS POLLO 8 KG</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2022-05-19</t>
   </si>
 </sst>
 </file>
@@ -414,7 +435,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C1" sqref="C1"/>
@@ -488,20 +509,46 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>84340</v>
+      </c>
+      <c r="G3">
+        <v>84340</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>910</v>
+      </c>
       <c r="M3"/>
-      <c r="N3"/>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4"/>
@@ -582,70 +629,6 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
